--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,56 @@
           <t>Температура моря</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Город</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Говядина</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Картофель</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Пиво</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Бензин</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Джинсы</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Аренда 3-к</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Коммунальные платежи</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Цена за квадратного метра</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Зарплата</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,6 +526,38 @@
       <c r="F2" t="n">
         <v>2.3</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N2" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -500,6 +582,38 @@
       <c r="F3" t="n">
         <v>1.2</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L3" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N3" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +638,38 @@
       <c r="F4" t="n">
         <v>1.8</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L4" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N4" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -548,6 +694,38 @@
       <c r="F5" t="n">
         <v>5.4</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L5" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N5" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -572,6 +750,38 @@
       <c r="F6" t="n">
         <v>10.5</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L6" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N6" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +806,38 @@
       <c r="F7" t="n">
         <v>15.7</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L7" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N7" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -620,6 +862,38 @@
       <c r="F8" t="n">
         <v>18.6</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L8" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N8" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -644,6 +918,38 @@
       <c r="F9" t="n">
         <v>18.4</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L9" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N9" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -668,6 +974,38 @@
       <c r="F10" t="n">
         <v>15.3</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L10" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N10" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -692,6 +1030,38 @@
       <c r="F11" t="n">
         <v>11.3</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L11" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N11" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -716,6 +1086,38 @@
       <c r="F12" t="n">
         <v>8.5</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L12" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N12" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O12" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -740,6 +1142,38 @@
       <c r="F13" t="n">
         <v>3.6</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L13" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2244.61</v>
+      </c>
+      <c r="N13" t="n">
+        <v>224.91</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9211.52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4015.28</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -764,6 +1198,38 @@
       <c r="F14" t="n">
         <v>13.4</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L14" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N14" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -788,6 +1254,38 @@
       <c r="F15" t="n">
         <v>13</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L15" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N15" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -812,6 +1310,38 @@
       <c r="F16" t="n">
         <v>13.3</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L16" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N16" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -836,6 +1366,38 @@
       <c r="F17" t="n">
         <v>14.3</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L17" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N17" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -860,6 +1422,38 @@
       <c r="F18" t="n">
         <v>15.4</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L18" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N18" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -884,6 +1478,38 @@
       <c r="F19" t="n">
         <v>16.6</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L19" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N19" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -908,6 +1534,38 @@
       <c r="F20" t="n">
         <v>17</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L20" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -932,6 +1590,38 @@
       <c r="F21" t="n">
         <v>17.3</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L21" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N21" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -956,6 +1646,38 @@
       <c r="F22" t="n">
         <v>17.6</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L22" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N22" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -980,6 +1702,38 @@
       <c r="F23" t="n">
         <v>16.7</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L23" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N23" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1004,6 +1758,38 @@
       <c r="F24" t="n">
         <v>15.7</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L24" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N24" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1028,6 +1814,38 @@
       <c r="F25" t="n">
         <v>14.1</v>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L25" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1712.64</v>
+      </c>
+      <c r="N25" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2765.59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1435.22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1052,6 +1870,38 @@
       <c r="F26" t="n">
         <v>14.3</v>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L26" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M26" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N26" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P26" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1076,6 +1926,38 @@
       <c r="F27" t="n">
         <v>13.6</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L27" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M27" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N27" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P27" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1100,6 +1982,38 @@
       <c r="F28" t="n">
         <v>13.9</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L28" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M28" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N28" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P28" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1124,6 +2038,38 @@
       <c r="F29" t="n">
         <v>15.5</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L29" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M29" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N29" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P29" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1148,6 +2094,38 @@
       <c r="F30" t="n">
         <v>19.1</v>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L30" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M30" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N30" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P30" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1172,6 +2150,38 @@
       <c r="F31" t="n">
         <v>23.2</v>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L31" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M31" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N31" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P31" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1194,7 +2204,39 @@
         <v>28</v>
       </c>
       <c r="F32" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L32" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M32" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N32" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P32" t="n">
+        <v>749.17</v>
       </c>
     </row>
     <row r="33">
@@ -1220,6 +2262,38 @@
       <c r="F33" t="n">
         <v>26</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L33" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M33" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N33" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P33" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1244,6 +2318,38 @@
       <c r="F34" t="n">
         <v>24.3</v>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L34" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M34" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N34" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P34" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1268,6 +2374,38 @@
       <c r="F35" t="n">
         <v>21.6</v>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L35" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M35" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N35" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P35" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1292,6 +2430,38 @@
       <c r="F36" t="n">
         <v>19.5</v>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L36" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M36" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N36" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P36" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1316,6 +2486,38 @@
       <c r="F37" t="n">
         <v>16.7</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L37" t="n">
+        <v>80.08</v>
+      </c>
+      <c r="M37" t="n">
+        <v>853.65</v>
+      </c>
+      <c r="N37" t="n">
+        <v>118.93</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2090.04</v>
+      </c>
+      <c r="P37" t="n">
+        <v>749.17</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1340,6 +2542,38 @@
       <c r="F38" t="n">
         <v>14.2</v>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L38" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M38" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N38" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P38" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1364,6 +2598,38 @@
       <c r="F39" t="n">
         <v>13.5</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L39" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M39" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N39" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P39" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1388,6 +2654,38 @@
       <c r="F40" t="n">
         <v>13.8</v>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L40" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M40" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N40" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P40" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1412,6 +2710,38 @@
       <c r="F41" t="n">
         <v>15.5</v>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L41" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M41" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N41" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P41" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1436,6 +2766,38 @@
       <c r="F42" t="n">
         <v>19.1</v>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L42" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M42" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N42" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P42" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1460,6 +2822,38 @@
       <c r="F43" t="n">
         <v>23.2</v>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L43" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M43" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N43" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P43" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1484,6 +2878,38 @@
       <c r="F44" t="n">
         <v>25.1</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L44" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M44" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N44" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P44" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1508,6 +2934,38 @@
       <c r="F45" t="n">
         <v>25.9</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L45" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M45" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N45" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P45" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1532,6 +2990,38 @@
       <c r="F46" t="n">
         <v>24.2</v>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L46" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M46" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N46" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P46" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1556,6 +3046,38 @@
       <c r="F47" t="n">
         <v>21.5</v>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L47" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M47" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N47" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P47" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1580,6 +3102,38 @@
       <c r="F48" t="n">
         <v>19.5</v>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L48" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M48" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N48" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P48" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1604,6 +3158,38 @@
       <c r="F49" t="n">
         <v>16.6</v>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Bar-Montenegro</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L49" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="M49" t="n">
+        <v>953.84</v>
+      </c>
+      <c r="N49" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2057.31</v>
+      </c>
+      <c r="P49" t="n">
+        <v>710.71</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1628,6 +3214,38 @@
       <c r="F50" t="n">
         <v>14.5</v>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>13</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L50" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N50" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O50" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1652,6 +3270,38 @@
       <c r="F51" t="n">
         <v>13.9</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>13</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L51" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N51" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O51" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1676,6 +3326,38 @@
       <c r="F52" t="n">
         <v>14.4</v>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>13</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L52" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N52" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O52" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1700,6 +3382,38 @@
       <c r="F53" t="n">
         <v>15.6</v>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>13</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L53" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N53" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1724,6 +3438,38 @@
       <c r="F54" t="n">
         <v>17.2</v>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>13</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L54" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N54" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O54" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1748,6 +3494,38 @@
       <c r="F55" t="n">
         <v>18.4</v>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>13</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L55" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N55" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O55" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1772,6 +3550,38 @@
       <c r="F56" t="n">
         <v>19.1</v>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>13</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L56" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N56" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O56" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1796,6 +3606,38 @@
       <c r="F57" t="n">
         <v>19.2</v>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>13</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L57" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N57" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O57" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1820,6 +3662,38 @@
       <c r="F58" t="n">
         <v>19.3</v>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>13</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L58" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N58" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O58" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1844,6 +3718,38 @@
       <c r="F59" t="n">
         <v>18.4</v>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>13</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L59" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N59" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O59" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1868,6 +3774,38 @@
       <c r="F60" t="n">
         <v>16.8</v>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>13</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L60" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N60" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O60" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1892,6 +3830,38 @@
       <c r="F61" t="n">
         <v>15.3</v>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>13</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L61" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2604.42</v>
+      </c>
+      <c r="N61" t="n">
+        <v>133.88</v>
+      </c>
+      <c r="O61" t="n">
+        <v>6419.79</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1245.36</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1916,6 +3886,38 @@
       <c r="F62" t="n">
         <v>6.6</v>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L62" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N62" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O62" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1940,6 +3942,38 @@
       <c r="F63" t="n">
         <v>6.7</v>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L63" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N63" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O63" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1964,6 +3998,38 @@
       <c r="F64" t="n">
         <v>7.4</v>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L64" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N64" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O64" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1988,6 +4054,38 @@
       <c r="F65" t="n">
         <v>9.6</v>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L65" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N65" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O65" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2012,6 +4110,38 @@
       <c r="F66" t="n">
         <v>12.9</v>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L66" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N66" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O66" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2036,6 +4166,38 @@
       <c r="F67" t="n">
         <v>15.7</v>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L67" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N67" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O67" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2060,6 +4222,38 @@
       <c r="F68" t="n">
         <v>18.2</v>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L68" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N68" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O68" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2084,6 +4278,38 @@
       <c r="F69" t="n">
         <v>18.8</v>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L69" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N69" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O69" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2108,6 +4334,38 @@
       <c r="F70" t="n">
         <v>15.7</v>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L70" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N70" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O70" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2132,6 +4390,38 @@
       <c r="F71" t="n">
         <v>11.7</v>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L71" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N71" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O71" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2156,6 +4446,38 @@
       <c r="F72" t="n">
         <v>8.9</v>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L72" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N72" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O72" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2180,6 +4502,38 @@
       <c r="F73" t="n">
         <v>7.2</v>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L73" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3526.41</v>
+      </c>
+      <c r="N73" t="n">
+        <v>112.89</v>
+      </c>
+      <c r="O73" t="n">
+        <v>10716.02</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3302.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2204,6 +4558,38 @@
       <c r="F74" t="n">
         <v>26.3</v>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L74" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M74" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N74" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P74" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2228,6 +4614,38 @@
       <c r="F75" t="n">
         <v>25.7</v>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L75" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M75" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N75" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P75" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2252,6 +4670,38 @@
       <c r="F76" t="n">
         <v>24</v>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L76" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M76" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N76" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P76" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2276,6 +4726,38 @@
       <c r="F77" t="n">
         <v>21.1</v>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L77" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M77" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N77" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P77" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2300,6 +4782,38 @@
       <c r="F78" t="n">
         <v>17.5</v>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L78" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M78" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N78" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P78" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2324,6 +4838,38 @@
       <c r="F79" t="n">
         <v>14.5</v>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L79" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M79" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N79" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P79" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2348,6 +4894,38 @@
       <c r="F80" t="n">
         <v>13</v>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L80" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M80" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N80" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P80" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2372,6 +4950,38 @@
       <c r="F81" t="n">
         <v>14.1</v>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L81" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M81" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N81" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O81" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P81" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2396,6 +5006,38 @@
       <c r="F82" t="n">
         <v>16.3</v>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L82" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M82" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N82" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P82" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2420,6 +5062,38 @@
       <c r="F83" t="n">
         <v>18.9</v>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L83" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M83" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N83" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P83" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2444,6 +5118,38 @@
       <c r="F84" t="n">
         <v>22.4</v>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L84" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M84" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N84" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P84" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2468,6 +5174,38 @@
       <c r="F85" t="n">
         <v>24.8</v>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Buenos-Aires</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L85" t="n">
+        <v>74.69</v>
+      </c>
+      <c r="M85" t="n">
+        <v>723.28</v>
+      </c>
+      <c r="N85" t="n">
+        <v>45.44</v>
+      </c>
+      <c r="O85" t="n">
+        <v>2497.58</v>
+      </c>
+      <c r="P85" t="n">
+        <v>403.17</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2492,6 +5230,38 @@
       <c r="F86" t="n">
         <v>19.1</v>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L86" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N86" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O86" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2516,6 +5286,38 @@
       <c r="F87" t="n">
         <v>18.4</v>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L87" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N87" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O87" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2540,6 +5342,38 @@
       <c r="F88" t="n">
         <v>18.2</v>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L88" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N88" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2564,6 +5398,38 @@
       <c r="F89" t="n">
         <v>18.7</v>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L89" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N89" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2588,6 +5454,38 @@
       <c r="F90" t="n">
         <v>19.7</v>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L90" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N90" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O90" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2612,6 +5510,38 @@
       <c r="F91" t="n">
         <v>21</v>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L91" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N91" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2636,6 +5566,38 @@
       <c r="F92" t="n">
         <v>22.4</v>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L92" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N92" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O92" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2660,6 +5622,38 @@
       <c r="F93" t="n">
         <v>23.4</v>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L93" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N93" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2684,6 +5678,38 @@
       <c r="F94" t="n">
         <v>23.9</v>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L94" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N94" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2708,6 +5734,38 @@
       <c r="F95" t="n">
         <v>23.2</v>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L95" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N95" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2732,6 +5790,38 @@
       <c r="F96" t="n">
         <v>21.7</v>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L96" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N96" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2756,6 +5846,38 @@
       <c r="F97" t="n">
         <v>20.2</v>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Funchal</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L97" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1527.4</v>
+      </c>
+      <c r="N97" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2655.8</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1128.58</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2780,6 +5902,38 @@
       <c r="F98" t="n">
         <v>7.1</v>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L98" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N98" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P98" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2804,6 +5958,38 @@
       <c r="F99" t="n">
         <v>6.1</v>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L99" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N99" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P99" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2828,6 +6014,38 @@
       <c r="F100" t="n">
         <v>6.8</v>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L100" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N100" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P100" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2852,6 +6070,38 @@
       <c r="F101" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L101" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N101" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P101" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2876,6 +6126,38 @@
       <c r="F102" t="n">
         <v>16</v>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L102" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N102" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P102" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2900,6 +6182,38 @@
       <c r="F103" t="n">
         <v>21.6</v>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L103" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N103" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P103" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2924,6 +6238,38 @@
       <c r="F104" t="n">
         <v>24.7</v>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L104" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N104" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P104" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2948,6 +6294,38 @@
       <c r="F105" t="n">
         <v>25.6</v>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L105" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N105" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P105" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2972,6 +6350,38 @@
       <c r="F106" t="n">
         <v>23.1</v>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L106" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N106" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P106" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2996,6 +6406,38 @@
       <c r="F107" t="n">
         <v>18.5</v>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L107" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N107" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P107" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3020,6 +6462,38 @@
       <c r="F108" t="n">
         <v>14.3</v>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L108" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N108" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P108" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3044,6 +6518,38 @@
       <c r="F109" t="n">
         <v>10.1</v>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Varna</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L109" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="N109" t="n">
+        <v>123.76</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1848.44</v>
+      </c>
+      <c r="P109" t="n">
+        <v>841</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3068,6 +6574,38 @@
       <c r="F110" t="n">
         <v>-1.5</v>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L110" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M110" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N110" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P110" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3092,6 +6630,38 @@
       <c r="F111" t="n">
         <v>-1.6</v>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L111" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M111" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N111" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P111" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3116,6 +6686,38 @@
       <c r="F112" t="n">
         <v>-1.4</v>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L112" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M112" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N112" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P112" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3140,6 +6742,38 @@
       <c r="F113" t="n">
         <v>-0.3</v>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L113" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M113" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N113" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P113" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3164,6 +6798,38 @@
       <c r="F114" t="n">
         <v>5</v>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L114" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M114" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N114" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P114" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3188,6 +6854,38 @@
       <c r="F115" t="n">
         <v>10.5</v>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L115" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M115" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N115" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P115" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3212,6 +6910,38 @@
       <c r="F116" t="n">
         <v>13.8</v>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L116" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M116" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N116" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P116" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3236,6 +6966,38 @@
       <c r="F117" t="n">
         <v>14.2</v>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L117" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M117" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N117" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P117" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3260,6 +7022,38 @@
       <c r="F118" t="n">
         <v>10.7</v>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L118" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M118" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N118" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P118" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3284,6 +7078,38 @@
       <c r="F119" t="n">
         <v>4.9</v>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L119" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M119" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N119" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P119" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3308,6 +7134,38 @@
       <c r="F120" t="n">
         <v>0.9</v>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L120" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M120" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N120" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P120" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3332,6 +7190,38 @@
       <c r="F121" t="n">
         <v>-0.9</v>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Severodvinsk-Russia</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L121" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="M121" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="N121" t="n">
+        <v>113.56</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1238.85</v>
+      </c>
+      <c r="P121" t="n">
+        <v>468.01</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3356,6 +7246,38 @@
       <c r="F122" t="n">
         <v>21.1</v>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L122" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N122" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O122" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P122" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3380,6 +7302,38 @@
       <c r="F123" t="n">
         <v>21.9</v>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L123" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N123" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O123" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P123" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3404,6 +7358,38 @@
       <c r="F124" t="n">
         <v>21.3</v>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L124" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N124" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O124" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P124" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3428,6 +7414,38 @@
       <c r="F125" t="n">
         <v>19.6</v>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L125" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N125" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O125" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P125" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3452,6 +7470,38 @@
       <c r="F126" t="n">
         <v>17.5</v>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L126" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N126" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O126" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P126" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3476,6 +7526,38 @@
       <c r="F127" t="n">
         <v>15.3</v>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L127" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M127" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N127" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O127" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P127" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3500,6 +7582,38 @@
       <c r="F128" t="n">
         <v>13.7</v>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L128" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N128" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O128" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P128" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3524,6 +7638,38 @@
       <c r="F129" t="n">
         <v>13.4</v>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L129" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M129" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N129" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O129" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P129" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3548,6 +7694,38 @@
       <c r="F130" t="n">
         <v>14.2</v>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L130" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N130" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O130" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P130" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3572,6 +7750,38 @@
       <c r="F131" t="n">
         <v>15.6</v>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L131" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N131" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O131" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P131" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3596,6 +7806,38 @@
       <c r="F132" t="n">
         <v>17.6</v>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L132" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N132" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O132" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P132" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3620,6 +7862,38 @@
       <c r="F133" t="n">
         <v>19.7</v>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L133" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2476.07</v>
+      </c>
+      <c r="N133" t="n">
+        <v>149.76</v>
+      </c>
+      <c r="O133" t="n">
+        <v>9039.809999999999</v>
+      </c>
+      <c r="P133" t="n">
+        <v>3252.36</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3644,6 +7918,38 @@
       <c r="F134" t="n">
         <v>0</v>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L134" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N134" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O134" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P134" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3668,6 +7974,38 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L135" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N135" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O135" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P135" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3692,6 +8030,38 @@
       <c r="F136" t="n">
         <v>0</v>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L136" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N136" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O136" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P136" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3716,6 +8086,38 @@
       <c r="F137" t="n">
         <v>0</v>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L137" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N137" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O137" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P137" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3740,6 +8142,38 @@
       <c r="F138" t="n">
         <v>0</v>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L138" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N138" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O138" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P138" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3764,6 +8198,38 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L139" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N139" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O139" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P139" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3788,6 +8254,38 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L140" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N140" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O140" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P140" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3812,6 +8310,38 @@
       <c r="F141" t="n">
         <v>0</v>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L141" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N141" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O141" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P141" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3836,6 +8366,38 @@
       <c r="F142" t="n">
         <v>0</v>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L142" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N142" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O142" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P142" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3860,6 +8422,38 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L143" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N143" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O143" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P143" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3884,6 +8478,38 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L144" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N144" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O144" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P144" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3908,6 +8534,38 @@
       <c r="F145" t="n">
         <v>0</v>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Belgrade</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L145" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1451.48</v>
+      </c>
+      <c r="N145" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="O145" t="n">
+        <v>3931.46</v>
+      </c>
+      <c r="P145" t="n">
+        <v>747.11</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3932,6 +8590,38 @@
       <c r="F146" t="n">
         <v>0</v>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L146" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N146" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O146" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P146" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3956,6 +8646,38 @@
       <c r="F147" t="n">
         <v>0</v>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L147" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N147" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O147" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P147" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3980,6 +8702,38 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L148" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N148" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O148" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P148" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4004,6 +8758,38 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L149" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N149" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O149" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P149" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4028,6 +8814,38 @@
       <c r="F150" t="n">
         <v>0</v>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L150" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N150" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O150" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P150" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4052,6 +8870,38 @@
       <c r="F151" t="n">
         <v>0</v>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L151" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N151" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O151" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P151" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4076,6 +8926,38 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L152" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N152" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O152" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P152" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4100,6 +8982,38 @@
       <c r="F153" t="n">
         <v>0</v>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L153" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N153" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O153" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P153" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4124,6 +9038,38 @@
       <c r="F154" t="n">
         <v>0</v>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L154" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N154" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O154" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4148,6 +9094,38 @@
       <c r="F155" t="n">
         <v>0</v>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L155" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N155" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O155" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P155" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4172,6 +9150,38 @@
       <c r="F156" t="n">
         <v>0</v>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L156" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N156" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O156" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4196,6 +9206,38 @@
       <c r="F157" t="n">
         <v>0</v>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L157" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1488.05</v>
+      </c>
+      <c r="N157" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="O157" t="n">
+        <v>6123.57</v>
+      </c>
+      <c r="P157" t="n">
+        <v>1028.6</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4220,6 +9262,38 @@
       <c r="F158" t="n">
         <v>0</v>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L158" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N158" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O158" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P158" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4244,6 +9318,38 @@
       <c r="F159" t="n">
         <v>0</v>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L159" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N159" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O159" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P159" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4268,6 +9374,38 @@
       <c r="F160" t="n">
         <v>0</v>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L160" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N160" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O160" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P160" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4292,6 +9430,38 @@
       <c r="F161" t="n">
         <v>0</v>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L161" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N161" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O161" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P161" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4316,6 +9486,38 @@
       <c r="F162" t="n">
         <v>0</v>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L162" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N162" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O162" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P162" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4340,6 +9542,38 @@
       <c r="F163" t="n">
         <v>0</v>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L163" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N163" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O163" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P163" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4364,6 +9598,38 @@
       <c r="F164" t="n">
         <v>0</v>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L164" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N164" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O164" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P164" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4388,6 +9654,38 @@
       <c r="F165" t="n">
         <v>0</v>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L165" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N165" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O165" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P165" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4412,6 +9710,38 @@
       <c r="F166" t="n">
         <v>0</v>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L166" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N166" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O166" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P166" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4436,6 +9766,38 @@
       <c r="F167" t="n">
         <v>0</v>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L167" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N167" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O167" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P167" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4460,6 +9822,38 @@
       <c r="F168" t="n">
         <v>0</v>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L168" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N168" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O168" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P168" t="n">
+        <v>2023.81</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4483,6 +9877,38 @@
       </c>
       <c r="F169" t="n">
         <v>0</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L169" t="n">
+        <v>96.47</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2110.11</v>
+      </c>
+      <c r="N169" t="n">
+        <v>363.19</v>
+      </c>
+      <c r="O169" t="n">
+        <v>9277.26</v>
+      </c>
+      <c r="P169" t="n">
+        <v>2023.81</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Климатические данные" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Данные" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P169"/>
+  <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,50 +454,45 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Город</t>
+          <t>Говядина</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Говядина</t>
+          <t>Картофель</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Картофель</t>
+          <t>Пиво</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Пиво</t>
+          <t>Бензин</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Бензин</t>
+          <t>Джинсы</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Джинсы</t>
+          <t>Аренда 3-к</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Аренда 3-к</t>
+          <t>Коммунальные платежи</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Коммунальные платежи</t>
+          <t>Цена за квадратного метра</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
-        <is>
-          <t>Цена за квадратного метра</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
         <is>
           <t>Зарплата</t>
         </is>
@@ -526,37 +521,32 @@
       <c r="F2" t="n">
         <v>2.3</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G2" t="n">
+        <v>29.6</v>
       </c>
       <c r="H2" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J2" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K2" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L2" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M2" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N2" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="3">
@@ -582,37 +572,32 @@
       <c r="F3" t="n">
         <v>1.2</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G3" t="n">
+        <v>29.6</v>
       </c>
       <c r="H3" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J3" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K3" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L3" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M3" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N3" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="4">
@@ -638,37 +623,32 @@
       <c r="F4" t="n">
         <v>1.8</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G4" t="n">
+        <v>29.6</v>
       </c>
       <c r="H4" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J4" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K4" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L4" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M4" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N4" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="5">
@@ -694,37 +674,32 @@
       <c r="F5" t="n">
         <v>5.4</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G5" t="n">
+        <v>29.6</v>
       </c>
       <c r="H5" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J5" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K5" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L5" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M5" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N5" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="6">
@@ -750,37 +725,32 @@
       <c r="F6" t="n">
         <v>10.5</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G6" t="n">
+        <v>29.6</v>
       </c>
       <c r="H6" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J6" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K6" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L6" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M6" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N6" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="7">
@@ -806,37 +776,32 @@
       <c r="F7" t="n">
         <v>15.7</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G7" t="n">
+        <v>29.6</v>
       </c>
       <c r="H7" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J7" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K7" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L7" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M7" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N7" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="8">
@@ -862,37 +827,32 @@
       <c r="F8" t="n">
         <v>18.6</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G8" t="n">
+        <v>29.6</v>
       </c>
       <c r="H8" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J8" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K8" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L8" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M8" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N8" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="9">
@@ -918,37 +878,32 @@
       <c r="F9" t="n">
         <v>18.4</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G9" t="n">
+        <v>29.6</v>
       </c>
       <c r="H9" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J9" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K9" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L9" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M9" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N9" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="10">
@@ -974,37 +929,32 @@
       <c r="F10" t="n">
         <v>15.3</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G10" t="n">
+        <v>29.6</v>
       </c>
       <c r="H10" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J10" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K10" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L10" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M10" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N10" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="11">
@@ -1030,37 +980,32 @@
       <c r="F11" t="n">
         <v>11.3</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G11" t="n">
+        <v>29.6</v>
       </c>
       <c r="H11" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J11" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K11" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L11" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M11" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N11" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="12">
@@ -1086,37 +1031,32 @@
       <c r="F12" t="n">
         <v>8.5</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G12" t="n">
+        <v>29.6</v>
       </c>
       <c r="H12" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J12" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K12" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L12" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M12" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N12" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="13">
@@ -1142,37 +1082,32 @@
       <c r="F13" t="n">
         <v>3.6</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Oslo</t>
-        </is>
+      <c r="G13" t="n">
+        <v>29.6</v>
       </c>
       <c r="H13" t="n">
-        <v>29.6</v>
+        <v>2.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2.15</v>
+        <v>3.21</v>
       </c>
       <c r="J13" t="n">
-        <v>3.21</v>
+        <v>2.24</v>
       </c>
       <c r="K13" t="n">
-        <v>2.23</v>
+        <v>86.88</v>
       </c>
       <c r="L13" t="n">
-        <v>86.84999999999999</v>
+        <v>2213.82</v>
       </c>
       <c r="M13" t="n">
-        <v>2244.61</v>
+        <v>221.03</v>
       </c>
       <c r="N13" t="n">
-        <v>224.91</v>
+        <v>9214.110000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>9211.52</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4015.28</v>
+        <v>4016.41</v>
       </c>
     </row>
     <row r="14">
@@ -1198,37 +1133,32 @@
       <c r="F14" t="n">
         <v>13.4</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G14" t="n">
+        <v>13.23</v>
       </c>
       <c r="H14" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J14" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K14" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L14" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N14" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O14" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="15">
@@ -1254,37 +1184,32 @@
       <c r="F15" t="n">
         <v>13</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G15" t="n">
+        <v>13.23</v>
       </c>
       <c r="H15" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J15" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K15" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L15" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M15" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N15" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O15" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="16">
@@ -1310,37 +1235,32 @@
       <c r="F16" t="n">
         <v>13.3</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G16" t="n">
+        <v>13.23</v>
       </c>
       <c r="H16" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J16" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K16" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L16" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N16" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O16" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="17">
@@ -1366,37 +1286,32 @@
       <c r="F17" t="n">
         <v>14.3</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G17" t="n">
+        <v>13.23</v>
       </c>
       <c r="H17" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J17" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K17" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L17" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N17" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O17" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="18">
@@ -1422,37 +1337,32 @@
       <c r="F18" t="n">
         <v>15.4</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G18" t="n">
+        <v>13.23</v>
       </c>
       <c r="H18" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J18" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K18" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L18" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N18" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O18" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="19">
@@ -1478,37 +1388,32 @@
       <c r="F19" t="n">
         <v>16.6</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G19" t="n">
+        <v>13.23</v>
       </c>
       <c r="H19" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J19" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K19" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L19" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N19" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O19" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="20">
@@ -1534,37 +1439,32 @@
       <c r="F20" t="n">
         <v>17</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G20" t="n">
+        <v>13.23</v>
       </c>
       <c r="H20" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J20" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K20" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L20" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M20" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N20" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O20" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="21">
@@ -1590,37 +1490,32 @@
       <c r="F21" t="n">
         <v>17.3</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G21" t="n">
+        <v>13.23</v>
       </c>
       <c r="H21" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J21" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K21" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L21" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M21" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N21" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O21" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="22">
@@ -1646,37 +1541,32 @@
       <c r="F22" t="n">
         <v>17.6</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G22" t="n">
+        <v>13.23</v>
       </c>
       <c r="H22" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J22" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K22" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L22" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N22" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O22" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="23">
@@ -1702,37 +1592,32 @@
       <c r="F23" t="n">
         <v>16.7</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G23" t="n">
+        <v>13.23</v>
       </c>
       <c r="H23" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J23" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K23" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L23" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M23" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N23" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O23" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="24">
@@ -1758,37 +1643,32 @@
       <c r="F24" t="n">
         <v>15.7</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G24" t="n">
+        <v>13.23</v>
       </c>
       <c r="H24" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J24" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K24" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L24" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M24" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N24" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O24" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="25">
@@ -1814,37 +1694,32 @@
       <c r="F25" t="n">
         <v>14.1</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
+      <c r="G25" t="n">
+        <v>13.23</v>
       </c>
       <c r="H25" t="n">
-        <v>13.34</v>
+        <v>1.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="J25" t="n">
-        <v>1.17</v>
+        <v>1.96</v>
       </c>
       <c r="K25" t="n">
-        <v>1.98</v>
+        <v>70.87</v>
       </c>
       <c r="L25" t="n">
-        <v>71.47</v>
+        <v>1698.42</v>
       </c>
       <c r="M25" t="n">
-        <v>1712.64</v>
+        <v>116.55</v>
       </c>
       <c r="N25" t="n">
-        <v>117.53</v>
+        <v>2742.62</v>
       </c>
       <c r="O25" t="n">
-        <v>2765.59</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1435.22</v>
+        <v>1423.3</v>
       </c>
     </row>
     <row r="26">
@@ -1870,37 +1745,32 @@
       <c r="F26" t="n">
         <v>14.3</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G26" t="n">
+        <v>11.21</v>
       </c>
       <c r="H26" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I26" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K26" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L26" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N26" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O26" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P26" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="27">
@@ -1926,37 +1796,32 @@
       <c r="F27" t="n">
         <v>13.6</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G27" t="n">
+        <v>11.21</v>
       </c>
       <c r="H27" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I27" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K27" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L27" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N27" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O27" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P27" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="28">
@@ -1982,37 +1847,32 @@
       <c r="F28" t="n">
         <v>13.9</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G28" t="n">
+        <v>11.21</v>
       </c>
       <c r="H28" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I28" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K28" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L28" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N28" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O28" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P28" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="29">
@@ -2038,37 +1898,32 @@
       <c r="F29" t="n">
         <v>15.5</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G29" t="n">
+        <v>11.21</v>
       </c>
       <c r="H29" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I29" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K29" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L29" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N29" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O29" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P29" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="30">
@@ -2094,37 +1949,32 @@
       <c r="F30" t="n">
         <v>19.1</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G30" t="n">
+        <v>11.21</v>
       </c>
       <c r="H30" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I30" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K30" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L30" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N30" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O30" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P30" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="31">
@@ -2150,37 +2000,32 @@
       <c r="F31" t="n">
         <v>23.2</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G31" t="n">
+        <v>11.21</v>
       </c>
       <c r="H31" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I31" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K31" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L31" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N31" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O31" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P31" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="32">
@@ -2206,37 +2051,32 @@
       <c r="F32" t="n">
         <v>25.2</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G32" t="n">
+        <v>11.21</v>
       </c>
       <c r="H32" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I32" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J32" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K32" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L32" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N32" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O32" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P32" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="33">
@@ -2262,37 +2102,32 @@
       <c r="F33" t="n">
         <v>26</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G33" t="n">
+        <v>11.21</v>
       </c>
       <c r="H33" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I33" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K33" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L33" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M33" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N33" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O33" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P33" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="34">
@@ -2318,37 +2153,32 @@
       <c r="F34" t="n">
         <v>24.3</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G34" t="n">
+        <v>11.21</v>
       </c>
       <c r="H34" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I34" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K34" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L34" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N34" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O34" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P34" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="35">
@@ -2374,37 +2204,32 @@
       <c r="F35" t="n">
         <v>21.6</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G35" t="n">
+        <v>11.21</v>
       </c>
       <c r="H35" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I35" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K35" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L35" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M35" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N35" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O35" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P35" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="36">
@@ -2430,37 +2255,32 @@
       <c r="F36" t="n">
         <v>19.5</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G36" t="n">
+        <v>11.21</v>
       </c>
       <c r="H36" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I36" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K36" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L36" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M36" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N36" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O36" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P36" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="37">
@@ -2486,37 +2306,32 @@
       <c r="F37" t="n">
         <v>16.7</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Podgorica</t>
-        </is>
+      <c r="G37" t="n">
+        <v>11.21</v>
       </c>
       <c r="H37" t="n">
-        <v>11.31</v>
+        <v>0.97</v>
       </c>
       <c r="I37" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="K37" t="n">
-        <v>1.68</v>
+        <v>79.42</v>
       </c>
       <c r="L37" t="n">
-        <v>80.08</v>
+        <v>846.5599999999999</v>
       </c>
       <c r="M37" t="n">
-        <v>853.65</v>
+        <v>117.95</v>
       </c>
       <c r="N37" t="n">
-        <v>118.93</v>
+        <v>2072.68</v>
       </c>
       <c r="O37" t="n">
-        <v>2090.04</v>
-      </c>
-      <c r="P37" t="n">
-        <v>749.17</v>
+        <v>757.53</v>
       </c>
     </row>
     <row r="38">
@@ -2542,37 +2357,32 @@
       <c r="F38" t="n">
         <v>14.2</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G38" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I38" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J38" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K38" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L38" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M38" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N38" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O38" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P38" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="39">
@@ -2598,37 +2408,32 @@
       <c r="F39" t="n">
         <v>13.5</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G39" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I39" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J39" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K39" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L39" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M39" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N39" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O39" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P39" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="40">
@@ -2654,37 +2459,32 @@
       <c r="F40" t="n">
         <v>13.8</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G40" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I40" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J40" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K40" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L40" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M40" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N40" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O40" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P40" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="41">
@@ -2710,37 +2510,32 @@
       <c r="F41" t="n">
         <v>15.5</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G41" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I41" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J41" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K41" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L41" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M41" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N41" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O41" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P41" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="42">
@@ -2766,37 +2561,32 @@
       <c r="F42" t="n">
         <v>19.1</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G42" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I42" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J42" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K42" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L42" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M42" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N42" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O42" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P42" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="43">
@@ -2822,37 +2612,32 @@
       <c r="F43" t="n">
         <v>23.2</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G43" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I43" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J43" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K43" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L43" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M43" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N43" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O43" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P43" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="44">
@@ -2878,37 +2663,32 @@
       <c r="F44" t="n">
         <v>25.1</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G44" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I44" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J44" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K44" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L44" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M44" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N44" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O44" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P44" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="45">
@@ -2934,37 +2714,32 @@
       <c r="F45" t="n">
         <v>25.9</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G45" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I45" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J45" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K45" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L45" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M45" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N45" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O45" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P45" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="46">
@@ -2990,37 +2765,32 @@
       <c r="F46" t="n">
         <v>24.2</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G46" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I46" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J46" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K46" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L46" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M46" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N46" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O46" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P46" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="47">
@@ -3046,37 +2816,32 @@
       <c r="F47" t="n">
         <v>21.5</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G47" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I47" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J47" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K47" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L47" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M47" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N47" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O47" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P47" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="48">
@@ -3102,37 +2867,32 @@
       <c r="F48" t="n">
         <v>19.5</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G48" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I48" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J48" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K48" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L48" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M48" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N48" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O48" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P48" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="49">
@@ -3158,37 +2918,32 @@
       <c r="F49" t="n">
         <v>16.6</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Bar-Montenegro</t>
-        </is>
+      <c r="G49" t="n">
+        <v>9.460000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>9.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I49" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="J49" t="n">
-        <v>0.79</v>
+        <v>1.7</v>
       </c>
       <c r="K49" t="n">
-        <v>1.71</v>
+        <v>33.39</v>
       </c>
       <c r="L49" t="n">
-        <v>33.67</v>
+        <v>945.92</v>
       </c>
       <c r="M49" t="n">
-        <v>953.84</v>
+        <v>92.92</v>
       </c>
       <c r="N49" t="n">
-        <v>93.7</v>
+        <v>2040.22</v>
       </c>
       <c r="O49" t="n">
-        <v>2057.31</v>
-      </c>
-      <c r="P49" t="n">
-        <v>710.71</v>
+        <v>704.8</v>
       </c>
     </row>
     <row r="50">
@@ -3214,37 +2969,32 @@
       <c r="F50" t="n">
         <v>14.5</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G50" t="n">
+        <v>12.9</v>
       </c>
       <c r="H50" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I50" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J50" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K50" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L50" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M50" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N50" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O50" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="51">
@@ -3270,37 +3020,32 @@
       <c r="F51" t="n">
         <v>13.9</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G51" t="n">
+        <v>12.9</v>
       </c>
       <c r="H51" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I51" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J51" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K51" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L51" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M51" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N51" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O51" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="52">
@@ -3326,37 +3071,32 @@
       <c r="F52" t="n">
         <v>14.4</v>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G52" t="n">
+        <v>12.9</v>
       </c>
       <c r="H52" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I52" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J52" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K52" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L52" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M52" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N52" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O52" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="53">
@@ -3382,37 +3122,32 @@
       <c r="F53" t="n">
         <v>15.6</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G53" t="n">
+        <v>12.9</v>
       </c>
       <c r="H53" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I53" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J53" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K53" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L53" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M53" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N53" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O53" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="54">
@@ -3438,37 +3173,32 @@
       <c r="F54" t="n">
         <v>17.2</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G54" t="n">
+        <v>12.9</v>
       </c>
       <c r="H54" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I54" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J54" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K54" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L54" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M54" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N54" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O54" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="55">
@@ -3494,37 +3224,32 @@
       <c r="F55" t="n">
         <v>18.4</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G55" t="n">
+        <v>12.9</v>
       </c>
       <c r="H55" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I55" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J55" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K55" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L55" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M55" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N55" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O55" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="56">
@@ -3550,37 +3275,32 @@
       <c r="F56" t="n">
         <v>19.1</v>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G56" t="n">
+        <v>12.9</v>
       </c>
       <c r="H56" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I56" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J56" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K56" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L56" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M56" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N56" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O56" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="57">
@@ -3606,37 +3326,32 @@
       <c r="F57" t="n">
         <v>19.2</v>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G57" t="n">
+        <v>12.9</v>
       </c>
       <c r="H57" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I57" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J57" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K57" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L57" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M57" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N57" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O57" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="58">
@@ -3662,37 +3377,32 @@
       <c r="F58" t="n">
         <v>19.3</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G58" t="n">
+        <v>12.9</v>
       </c>
       <c r="H58" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I58" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J58" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K58" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L58" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M58" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N58" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O58" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="59">
@@ -3718,37 +3428,32 @@
       <c r="F59" t="n">
         <v>18.4</v>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G59" t="n">
+        <v>12.9</v>
       </c>
       <c r="H59" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I59" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J59" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K59" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L59" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M59" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N59" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O59" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P59" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="60">
@@ -3774,37 +3479,32 @@
       <c r="F60" t="n">
         <v>16.8</v>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G60" t="n">
+        <v>12.9</v>
       </c>
       <c r="H60" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I60" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J60" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K60" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L60" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M60" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N60" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O60" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="61">
@@ -3830,37 +3530,32 @@
       <c r="F61" t="n">
         <v>15.3</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
+      <c r="G61" t="n">
+        <v>12.9</v>
       </c>
       <c r="H61" t="n">
-        <v>13</v>
+        <v>1.54</v>
       </c>
       <c r="I61" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="J61" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="K61" t="n">
-        <v>2.03</v>
+        <v>89</v>
       </c>
       <c r="L61" t="n">
-        <v>89.73999999999999</v>
+        <v>2582.79</v>
       </c>
       <c r="M61" t="n">
-        <v>2604.42</v>
+        <v>132.77</v>
       </c>
       <c r="N61" t="n">
-        <v>133.88</v>
+        <v>6366.47</v>
       </c>
       <c r="O61" t="n">
-        <v>6419.79</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1245.36</v>
+        <v>1235.01</v>
       </c>
     </row>
     <row r="62">
@@ -3886,37 +3581,32 @@
       <c r="F62" t="n">
         <v>6.6</v>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G62" t="n">
+        <v>13.57</v>
       </c>
       <c r="H62" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I62" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J62" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K62" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L62" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M62" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N62" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O62" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P62" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="63">
@@ -3942,37 +3632,32 @@
       <c r="F63" t="n">
         <v>6.7</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G63" t="n">
+        <v>13.57</v>
       </c>
       <c r="H63" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I63" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J63" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K63" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L63" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M63" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N63" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O63" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P63" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="64">
@@ -3998,37 +3683,32 @@
       <c r="F64" t="n">
         <v>7.4</v>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G64" t="n">
+        <v>13.57</v>
       </c>
       <c r="H64" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I64" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J64" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K64" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L64" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M64" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N64" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O64" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P64" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="65">
@@ -4054,37 +3734,32 @@
       <c r="F65" t="n">
         <v>9.6</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G65" t="n">
+        <v>13.57</v>
       </c>
       <c r="H65" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I65" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J65" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K65" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L65" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M65" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N65" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O65" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P65" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="66">
@@ -4110,37 +3785,32 @@
       <c r="F66" t="n">
         <v>12.9</v>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G66" t="n">
+        <v>13.57</v>
       </c>
       <c r="H66" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I66" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J66" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K66" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L66" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M66" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N66" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O66" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P66" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="67">
@@ -4166,37 +3836,32 @@
       <c r="F67" t="n">
         <v>15.7</v>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G67" t="n">
+        <v>13.57</v>
       </c>
       <c r="H67" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I67" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J67" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K67" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L67" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M67" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N67" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O67" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P67" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="68">
@@ -4222,37 +3887,32 @@
       <c r="F68" t="n">
         <v>18.2</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G68" t="n">
+        <v>13.57</v>
       </c>
       <c r="H68" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I68" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J68" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K68" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L68" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M68" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N68" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O68" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P68" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="69">
@@ -4278,37 +3938,32 @@
       <c r="F69" t="n">
         <v>18.8</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G69" t="n">
+        <v>13.57</v>
       </c>
       <c r="H69" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I69" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J69" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K69" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L69" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M69" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N69" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O69" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P69" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="70">
@@ -4334,37 +3989,32 @@
       <c r="F70" t="n">
         <v>15.7</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G70" t="n">
+        <v>13.57</v>
       </c>
       <c r="H70" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I70" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J70" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K70" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L70" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M70" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N70" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O70" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P70" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="71">
@@ -4390,37 +4040,32 @@
       <c r="F71" t="n">
         <v>11.7</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G71" t="n">
+        <v>13.57</v>
       </c>
       <c r="H71" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I71" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J71" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K71" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L71" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M71" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N71" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O71" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P71" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="72">
@@ -4446,37 +4091,32 @@
       <c r="F72" t="n">
         <v>8.9</v>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G72" t="n">
+        <v>13.57</v>
       </c>
       <c r="H72" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I72" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J72" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K72" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L72" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M72" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N72" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O72" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P72" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="73">
@@ -4502,37 +4142,32 @@
       <c r="F73" t="n">
         <v>7.2</v>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Vancouver</t>
-        </is>
+      <c r="G73" t="n">
+        <v>13.57</v>
       </c>
       <c r="H73" t="n">
-        <v>13.56</v>
+        <v>3.14</v>
       </c>
       <c r="I73" t="n">
-        <v>3.17</v>
+        <v>2.94</v>
       </c>
       <c r="J73" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="K73" t="n">
-        <v>1.42</v>
+        <v>63.29</v>
       </c>
       <c r="L73" t="n">
-        <v>63.98</v>
+        <v>3481.41</v>
       </c>
       <c r="M73" t="n">
-        <v>3526.41</v>
+        <v>112.63</v>
       </c>
       <c r="N73" t="n">
-        <v>112.89</v>
+        <v>10697.94</v>
       </c>
       <c r="O73" t="n">
-        <v>10716.02</v>
-      </c>
-      <c r="P73" t="n">
-        <v>3302.5</v>
+        <v>3269.74</v>
       </c>
     </row>
     <row r="74">
@@ -4558,36 +4193,31 @@
       <c r="F74" t="n">
         <v>26.3</v>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G74" t="n">
+        <v>5.96</v>
       </c>
       <c r="H74" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I74" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J74" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K74" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L74" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M74" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N74" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O74" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P74" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -4614,36 +4244,31 @@
       <c r="F75" t="n">
         <v>25.7</v>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G75" t="n">
+        <v>5.96</v>
       </c>
       <c r="H75" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I75" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J75" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K75" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L75" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M75" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N75" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O75" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P75" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -4670,36 +4295,31 @@
       <c r="F76" t="n">
         <v>24</v>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G76" t="n">
+        <v>5.96</v>
       </c>
       <c r="H76" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I76" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J76" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K76" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L76" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M76" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N76" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O76" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P76" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -4726,36 +4346,31 @@
       <c r="F77" t="n">
         <v>21.1</v>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G77" t="n">
+        <v>5.96</v>
       </c>
       <c r="H77" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I77" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J77" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K77" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L77" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M77" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N77" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O77" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P77" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -4782,36 +4397,31 @@
       <c r="F78" t="n">
         <v>17.5</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G78" t="n">
+        <v>5.96</v>
       </c>
       <c r="H78" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I78" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J78" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K78" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L78" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M78" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N78" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O78" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P78" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -4838,36 +4448,31 @@
       <c r="F79" t="n">
         <v>14.5</v>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G79" t="n">
+        <v>5.96</v>
       </c>
       <c r="H79" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I79" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J79" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K79" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L79" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M79" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N79" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O79" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P79" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -4894,36 +4499,31 @@
       <c r="F80" t="n">
         <v>13</v>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G80" t="n">
+        <v>5.96</v>
       </c>
       <c r="H80" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I80" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J80" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K80" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L80" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M80" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N80" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O80" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P80" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -4950,36 +4550,31 @@
       <c r="F81" t="n">
         <v>14.1</v>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G81" t="n">
+        <v>5.96</v>
       </c>
       <c r="H81" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I81" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J81" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K81" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L81" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M81" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N81" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O81" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P81" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -5006,36 +4601,31 @@
       <c r="F82" t="n">
         <v>16.3</v>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G82" t="n">
+        <v>5.96</v>
       </c>
       <c r="H82" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I82" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J82" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K82" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L82" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M82" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N82" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O82" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P82" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -5062,36 +4652,31 @@
       <c r="F83" t="n">
         <v>18.9</v>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G83" t="n">
+        <v>5.96</v>
       </c>
       <c r="H83" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I83" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J83" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K83" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L83" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M83" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N83" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O83" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P83" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -5118,36 +4703,31 @@
       <c r="F84" t="n">
         <v>22.4</v>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G84" t="n">
+        <v>5.96</v>
       </c>
       <c r="H84" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I84" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J84" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K84" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L84" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M84" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N84" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O84" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P84" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -5174,36 +4754,31 @@
       <c r="F85" t="n">
         <v>24.8</v>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Buenos-Aires</t>
-        </is>
+      <c r="G85" t="n">
+        <v>5.96</v>
       </c>
       <c r="H85" t="n">
-        <v>5.95</v>
+        <v>0.67</v>
       </c>
       <c r="I85" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="J85" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="K85" t="n">
-        <v>0.92</v>
+        <v>74.69</v>
       </c>
       <c r="L85" t="n">
-        <v>74.69</v>
+        <v>723.28</v>
       </c>
       <c r="M85" t="n">
-        <v>723.28</v>
+        <v>45.44</v>
       </c>
       <c r="N85" t="n">
-        <v>45.44</v>
+        <v>2497.58</v>
       </c>
       <c r="O85" t="n">
-        <v>2497.58</v>
-      </c>
-      <c r="P85" t="n">
         <v>403.17</v>
       </c>
     </row>
@@ -5230,37 +4805,32 @@
       <c r="F86" t="n">
         <v>19.1</v>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G86" t="n">
+        <v>12.41</v>
       </c>
       <c r="H86" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I86" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J86" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K86" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L86" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M86" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N86" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O86" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P86" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="87">
@@ -5286,37 +4856,32 @@
       <c r="F87" t="n">
         <v>18.4</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G87" t="n">
+        <v>12.41</v>
       </c>
       <c r="H87" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I87" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J87" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K87" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L87" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M87" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N87" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O87" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P87" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="88">
@@ -5342,37 +4907,32 @@
       <c r="F88" t="n">
         <v>18.2</v>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G88" t="n">
+        <v>12.41</v>
       </c>
       <c r="H88" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I88" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J88" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K88" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L88" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M88" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N88" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O88" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="89">
@@ -5398,37 +4958,32 @@
       <c r="F89" t="n">
         <v>18.7</v>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G89" t="n">
+        <v>12.41</v>
       </c>
       <c r="H89" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I89" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J89" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K89" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L89" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M89" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N89" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O89" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P89" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="90">
@@ -5454,37 +5009,32 @@
       <c r="F90" t="n">
         <v>19.7</v>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G90" t="n">
+        <v>12.41</v>
       </c>
       <c r="H90" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I90" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J90" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K90" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L90" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M90" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N90" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O90" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="91">
@@ -5510,37 +5060,32 @@
       <c r="F91" t="n">
         <v>21</v>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G91" t="n">
+        <v>12.41</v>
       </c>
       <c r="H91" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I91" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J91" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K91" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L91" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M91" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N91" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O91" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P91" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="92">
@@ -5566,37 +5111,32 @@
       <c r="F92" t="n">
         <v>22.4</v>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G92" t="n">
+        <v>12.41</v>
       </c>
       <c r="H92" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I92" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J92" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K92" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L92" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M92" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N92" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O92" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P92" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="93">
@@ -5622,37 +5162,32 @@
       <c r="F93" t="n">
         <v>23.4</v>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G93" t="n">
+        <v>12.41</v>
       </c>
       <c r="H93" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I93" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J93" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K93" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L93" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M93" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N93" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O93" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P93" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="94">
@@ -5678,37 +5213,32 @@
       <c r="F94" t="n">
         <v>23.9</v>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G94" t="n">
+        <v>12.41</v>
       </c>
       <c r="H94" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I94" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J94" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K94" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L94" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M94" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N94" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O94" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P94" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="95">
@@ -5734,37 +5264,32 @@
       <c r="F95" t="n">
         <v>23.2</v>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G95" t="n">
+        <v>12.41</v>
       </c>
       <c r="H95" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I95" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J95" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K95" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L95" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M95" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N95" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O95" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P95" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="96">
@@ -5790,37 +5315,32 @@
       <c r="F96" t="n">
         <v>21.7</v>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G96" t="n">
+        <v>12.41</v>
       </c>
       <c r="H96" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I96" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J96" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K96" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L96" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M96" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N96" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O96" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P96" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="97">
@@ -5846,37 +5366,32 @@
       <c r="F97" t="n">
         <v>20.2</v>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Funchal</t>
-        </is>
+      <c r="G97" t="n">
+        <v>12.41</v>
       </c>
       <c r="H97" t="n">
-        <v>12.51</v>
+        <v>1.19</v>
       </c>
       <c r="I97" t="n">
-        <v>1.2</v>
+        <v>1.93</v>
       </c>
       <c r="J97" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="K97" t="n">
-        <v>2.04</v>
+        <v>70.48</v>
       </c>
       <c r="L97" t="n">
-        <v>71.06999999999999</v>
+        <v>1514.71</v>
       </c>
       <c r="M97" t="n">
-        <v>1527.4</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="N97" t="n">
-        <v>80.70999999999999</v>
+        <v>2633.74</v>
       </c>
       <c r="O97" t="n">
-        <v>2655.8</v>
-      </c>
-      <c r="P97" t="n">
-        <v>1128.58</v>
+        <v>1119.21</v>
       </c>
     </row>
     <row r="98">
@@ -5902,37 +5417,32 @@
       <c r="F98" t="n">
         <v>7.1</v>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G98" t="n">
+        <v>10.07</v>
       </c>
       <c r="H98" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I98" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J98" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K98" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L98" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M98" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N98" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O98" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P98" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="99">
@@ -5958,37 +5468,32 @@
       <c r="F99" t="n">
         <v>6.1</v>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G99" t="n">
+        <v>10.07</v>
       </c>
       <c r="H99" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I99" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J99" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K99" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L99" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M99" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N99" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O99" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P99" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="100">
@@ -6014,37 +5519,32 @@
       <c r="F100" t="n">
         <v>6.8</v>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G100" t="n">
+        <v>10.07</v>
       </c>
       <c r="H100" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I100" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J100" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K100" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L100" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M100" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N100" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O100" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P100" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="101">
@@ -6070,37 +5570,32 @@
       <c r="F101" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G101" t="n">
+        <v>10.07</v>
       </c>
       <c r="H101" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I101" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J101" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K101" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L101" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M101" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N101" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O101" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P101" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="102">
@@ -6126,37 +5621,32 @@
       <c r="F102" t="n">
         <v>16</v>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G102" t="n">
+        <v>10.07</v>
       </c>
       <c r="H102" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I102" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J102" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K102" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L102" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M102" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N102" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O102" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P102" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="103">
@@ -6182,37 +5672,32 @@
       <c r="F103" t="n">
         <v>21.6</v>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G103" t="n">
+        <v>10.07</v>
       </c>
       <c r="H103" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I103" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J103" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K103" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L103" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M103" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N103" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O103" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P103" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="104">
@@ -6238,37 +5723,32 @@
       <c r="F104" t="n">
         <v>24.7</v>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G104" t="n">
+        <v>10.07</v>
       </c>
       <c r="H104" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I104" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J104" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K104" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L104" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M104" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N104" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O104" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P104" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="105">
@@ -6294,37 +5774,32 @@
       <c r="F105" t="n">
         <v>25.6</v>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G105" t="n">
+        <v>10.07</v>
       </c>
       <c r="H105" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I105" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J105" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K105" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L105" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M105" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N105" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O105" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P105" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="106">
@@ -6350,37 +5825,32 @@
       <c r="F106" t="n">
         <v>23.1</v>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G106" t="n">
+        <v>10.07</v>
       </c>
       <c r="H106" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I106" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J106" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K106" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L106" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M106" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N106" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O106" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P106" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="107">
@@ -6406,37 +5876,32 @@
       <c r="F107" t="n">
         <v>18.5</v>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G107" t="n">
+        <v>10.07</v>
       </c>
       <c r="H107" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I107" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J107" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K107" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L107" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M107" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N107" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O107" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P107" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="108">
@@ -6462,37 +5927,32 @@
       <c r="F108" t="n">
         <v>14.3</v>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G108" t="n">
+        <v>10.07</v>
       </c>
       <c r="H108" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I108" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J108" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K108" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L108" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M108" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N108" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O108" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P108" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="109">
@@ -6518,37 +5978,32 @@
       <c r="F109" t="n">
         <v>10.1</v>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Varna</t>
-        </is>
+      <c r="G109" t="n">
+        <v>10.07</v>
       </c>
       <c r="H109" t="n">
-        <v>10.33</v>
+        <v>0.97</v>
       </c>
       <c r="I109" t="n">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J109" t="n">
-        <v>0.89</v>
+        <v>1.69</v>
       </c>
       <c r="K109" t="n">
-        <v>1.7</v>
+        <v>55.66</v>
       </c>
       <c r="L109" t="n">
-        <v>56.1</v>
+        <v>755.74</v>
       </c>
       <c r="M109" t="n">
-        <v>761.6900000000001</v>
+        <v>120.79</v>
       </c>
       <c r="N109" t="n">
-        <v>123.76</v>
+        <v>1834.17</v>
       </c>
       <c r="O109" t="n">
-        <v>1848.44</v>
-      </c>
-      <c r="P109" t="n">
-        <v>841</v>
+        <v>848.17</v>
       </c>
     </row>
     <row r="110">
@@ -6574,37 +6029,32 @@
       <c r="F110" t="n">
         <v>-1.5</v>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G110" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H110" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I110" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J110" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K110" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L110" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M110" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N110" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O110" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P110" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="111">
@@ -6630,37 +6080,32 @@
       <c r="F111" t="n">
         <v>-1.6</v>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G111" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H111" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I111" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J111" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K111" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L111" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M111" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N111" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O111" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P111" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="112">
@@ -6686,37 +6131,32 @@
       <c r="F112" t="n">
         <v>-1.4</v>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G112" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H112" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I112" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J112" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K112" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L112" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M112" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N112" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O112" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P112" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="113">
@@ -6742,37 +6182,32 @@
       <c r="F113" t="n">
         <v>-0.3</v>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G113" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H113" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I113" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J113" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K113" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L113" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M113" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N113" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O113" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P113" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="114">
@@ -6798,37 +6233,32 @@
       <c r="F114" t="n">
         <v>5</v>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G114" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H114" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I114" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J114" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K114" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L114" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M114" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N114" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O114" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P114" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="115">
@@ -6854,37 +6284,32 @@
       <c r="F115" t="n">
         <v>10.5</v>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G115" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I115" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J115" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K115" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L115" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M115" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N115" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O115" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P115" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="116">
@@ -6910,37 +6335,32 @@
       <c r="F116" t="n">
         <v>13.8</v>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G116" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H116" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I116" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J116" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K116" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L116" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M116" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N116" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O116" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P116" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="117">
@@ -6966,37 +6386,32 @@
       <c r="F117" t="n">
         <v>14.2</v>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G117" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H117" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I117" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J117" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K117" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L117" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M117" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N117" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O117" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P117" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="118">
@@ -7022,37 +6437,32 @@
       <c r="F118" t="n">
         <v>10.7</v>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G118" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H118" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I118" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J118" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K118" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L118" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M118" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N118" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O118" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P118" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="119">
@@ -7078,37 +6488,32 @@
       <c r="F119" t="n">
         <v>4.9</v>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G119" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I119" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J119" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K119" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L119" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M119" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N119" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O119" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P119" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="120">
@@ -7134,37 +6539,32 @@
       <c r="F120" t="n">
         <v>0.9</v>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G120" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I120" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J120" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K120" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L120" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M120" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N120" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O120" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P120" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="121">
@@ -7190,37 +6590,32 @@
       <c r="F121" t="n">
         <v>-0.9</v>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Severodvinsk-Russia</t>
-        </is>
+      <c r="G121" t="n">
+        <v>9.130000000000001</v>
       </c>
       <c r="H121" t="n">
-        <v>9.1</v>
+        <v>0.39</v>
       </c>
       <c r="I121" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="J121" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6</v>
+        <v>33.15</v>
       </c>
       <c r="L121" t="n">
-        <v>33.04</v>
+        <v>331.5</v>
       </c>
       <c r="M121" t="n">
-        <v>330.36</v>
+        <v>113.95</v>
       </c>
       <c r="N121" t="n">
-        <v>113.56</v>
+        <v>1243.12</v>
       </c>
       <c r="O121" t="n">
-        <v>1238.85</v>
-      </c>
-      <c r="P121" t="n">
-        <v>468.01</v>
+        <v>469.62</v>
       </c>
     </row>
     <row r="122">
@@ -7246,37 +6641,32 @@
       <c r="F122" t="n">
         <v>21.1</v>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G122" t="n">
+        <v>14.7</v>
       </c>
       <c r="H122" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I122" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J122" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K122" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L122" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M122" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N122" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O122" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P122" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="123">
@@ -7302,37 +6692,32 @@
       <c r="F123" t="n">
         <v>21.9</v>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G123" t="n">
+        <v>14.7</v>
       </c>
       <c r="H123" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I123" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J123" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K123" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L123" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M123" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N123" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O123" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P123" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="124">
@@ -7358,37 +6743,32 @@
       <c r="F124" t="n">
         <v>21.3</v>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G124" t="n">
+        <v>14.7</v>
       </c>
       <c r="H124" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I124" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J124" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K124" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L124" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M124" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N124" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O124" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P124" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="125">
@@ -7414,37 +6794,32 @@
       <c r="F125" t="n">
         <v>19.6</v>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G125" t="n">
+        <v>14.7</v>
       </c>
       <c r="H125" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I125" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J125" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K125" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L125" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M125" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N125" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O125" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P125" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="126">
@@ -7470,37 +6845,32 @@
       <c r="F126" t="n">
         <v>17.5</v>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G126" t="n">
+        <v>14.7</v>
       </c>
       <c r="H126" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I126" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J126" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K126" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L126" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M126" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N126" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O126" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P126" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="127">
@@ -7526,37 +6896,32 @@
       <c r="F127" t="n">
         <v>15.3</v>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G127" t="n">
+        <v>14.7</v>
       </c>
       <c r="H127" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I127" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J127" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K127" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L127" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M127" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N127" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O127" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P127" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="128">
@@ -7582,37 +6947,32 @@
       <c r="F128" t="n">
         <v>13.7</v>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G128" t="n">
+        <v>14.7</v>
       </c>
       <c r="H128" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I128" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J128" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K128" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L128" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M128" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N128" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O128" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P128" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="129">
@@ -7638,37 +6998,32 @@
       <c r="F129" t="n">
         <v>13.4</v>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G129" t="n">
+        <v>14.7</v>
       </c>
       <c r="H129" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I129" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J129" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K129" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L129" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M129" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N129" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O129" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P129" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="130">
@@ -7694,37 +7049,32 @@
       <c r="F130" t="n">
         <v>14.2</v>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G130" t="n">
+        <v>14.7</v>
       </c>
       <c r="H130" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I130" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J130" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K130" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L130" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M130" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N130" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O130" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P130" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="131">
@@ -7750,37 +7100,32 @@
       <c r="F131" t="n">
         <v>15.6</v>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G131" t="n">
+        <v>14.7</v>
       </c>
       <c r="H131" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I131" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J131" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K131" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L131" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M131" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N131" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O131" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P131" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="132">
@@ -7806,37 +7151,32 @@
       <c r="F132" t="n">
         <v>17.6</v>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G132" t="n">
+        <v>14.7</v>
       </c>
       <c r="H132" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I132" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J132" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K132" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L132" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M132" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N132" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O132" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P132" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="133">
@@ -7862,37 +7202,32 @@
       <c r="F133" t="n">
         <v>19.7</v>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Auckland</t>
-        </is>
+      <c r="G133" t="n">
+        <v>14.7</v>
       </c>
       <c r="H133" t="n">
-        <v>14.82</v>
+        <v>2.5</v>
       </c>
       <c r="I133" t="n">
-        <v>2.42</v>
+        <v>3.71</v>
       </c>
       <c r="J133" t="n">
-        <v>3.76</v>
+        <v>1.7</v>
       </c>
       <c r="K133" t="n">
-        <v>1.72</v>
+        <v>82.53</v>
       </c>
       <c r="L133" t="n">
-        <v>83.61</v>
+        <v>2444.12</v>
       </c>
       <c r="M133" t="n">
-        <v>2476.07</v>
+        <v>147.82</v>
       </c>
       <c r="N133" t="n">
-        <v>149.76</v>
+        <v>8923.139999999999</v>
       </c>
       <c r="O133" t="n">
-        <v>9039.809999999999</v>
-      </c>
-      <c r="P133" t="n">
-        <v>3252.36</v>
+        <v>3210.39</v>
       </c>
     </row>
     <row r="134">
@@ -7918,37 +7253,32 @@
       <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G134" t="n">
+        <v>12.38</v>
       </c>
       <c r="H134" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I134" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J134" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K134" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L134" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M134" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N134" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O134" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P134" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="135">
@@ -7974,37 +7304,32 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G135" t="n">
+        <v>12.38</v>
       </c>
       <c r="H135" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I135" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J135" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K135" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L135" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M135" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N135" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O135" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P135" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="136">
@@ -8030,37 +7355,32 @@
       <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G136" t="n">
+        <v>12.38</v>
       </c>
       <c r="H136" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I136" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J136" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K136" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L136" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M136" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N136" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O136" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P136" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="137">
@@ -8086,37 +7406,32 @@
       <c r="F137" t="n">
         <v>0</v>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G137" t="n">
+        <v>12.38</v>
       </c>
       <c r="H137" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I137" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J137" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K137" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L137" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M137" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N137" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O137" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P137" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="138">
@@ -8142,37 +7457,32 @@
       <c r="F138" t="n">
         <v>0</v>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G138" t="n">
+        <v>12.38</v>
       </c>
       <c r="H138" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I138" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J138" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K138" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L138" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M138" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N138" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O138" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P138" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="139">
@@ -8198,37 +7508,32 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G139" t="n">
+        <v>12.38</v>
       </c>
       <c r="H139" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I139" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J139" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K139" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L139" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M139" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N139" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O139" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P139" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="140">
@@ -8254,37 +7559,32 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G140" t="n">
+        <v>12.38</v>
       </c>
       <c r="H140" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I140" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J140" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K140" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L140" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M140" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N140" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O140" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P140" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="141">
@@ -8310,37 +7610,32 @@
       <c r="F141" t="n">
         <v>0</v>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G141" t="n">
+        <v>12.38</v>
       </c>
       <c r="H141" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I141" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J141" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K141" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L141" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M141" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N141" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O141" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P141" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="142">
@@ -8366,37 +7661,32 @@
       <c r="F142" t="n">
         <v>0</v>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G142" t="n">
+        <v>12.38</v>
       </c>
       <c r="H142" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I142" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J142" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K142" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L142" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M142" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N142" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O142" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P142" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="143">
@@ -8422,37 +7712,32 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G143" t="n">
+        <v>12.38</v>
       </c>
       <c r="H143" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I143" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J143" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K143" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L143" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M143" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N143" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O143" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P143" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="144">
@@ -8478,37 +7763,32 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G144" t="n">
+        <v>12.38</v>
       </c>
       <c r="H144" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I144" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J144" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K144" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L144" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M144" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N144" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O144" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P144" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="145">
@@ -8534,37 +7814,32 @@
       <c r="F145" t="n">
         <v>0</v>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Belgrade</t>
-        </is>
+      <c r="G145" t="n">
+        <v>12.38</v>
       </c>
       <c r="H145" t="n">
-        <v>12.48</v>
+        <v>1.24</v>
       </c>
       <c r="I145" t="n">
-        <v>1.25</v>
+        <v>0.78</v>
       </c>
       <c r="J145" t="n">
-        <v>0.79</v>
+        <v>1.75</v>
       </c>
       <c r="K145" t="n">
-        <v>1.76</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L145" t="n">
-        <v>89.01000000000001</v>
+        <v>1439.5</v>
       </c>
       <c r="M145" t="n">
-        <v>1451.48</v>
+        <v>165.48</v>
       </c>
       <c r="N145" t="n">
-        <v>166.84</v>
+        <v>3899.43</v>
       </c>
       <c r="O145" t="n">
-        <v>3931.46</v>
-      </c>
-      <c r="P145" t="n">
-        <v>747.11</v>
+        <v>741.02</v>
       </c>
     </row>
     <row r="146">
@@ -8590,37 +7865,32 @@
       <c r="F146" t="n">
         <v>0</v>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G146" t="n">
+        <v>8.01</v>
       </c>
       <c r="H146" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I146" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J146" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K146" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L146" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M146" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N146" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O146" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P146" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="147">
@@ -8646,37 +7916,32 @@
       <c r="F147" t="n">
         <v>0</v>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G147" t="n">
+        <v>8.01</v>
       </c>
       <c r="H147" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I147" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J147" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K147" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L147" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M147" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N147" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O147" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P147" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="148">
@@ -8702,37 +7967,32 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G148" t="n">
+        <v>8.01</v>
       </c>
       <c r="H148" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J148" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K148" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L148" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M148" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N148" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O148" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P148" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="149">
@@ -8758,37 +8018,32 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G149" t="n">
+        <v>8.01</v>
       </c>
       <c r="H149" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I149" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J149" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K149" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L149" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M149" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N149" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O149" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P149" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="150">
@@ -8814,37 +8069,32 @@
       <c r="F150" t="n">
         <v>0</v>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G150" t="n">
+        <v>8.01</v>
       </c>
       <c r="H150" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I150" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J150" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K150" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L150" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M150" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N150" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O150" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P150" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="151">
@@ -8870,37 +8120,32 @@
       <c r="F151" t="n">
         <v>0</v>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G151" t="n">
+        <v>8.01</v>
       </c>
       <c r="H151" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I151" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J151" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K151" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L151" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M151" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N151" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O151" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P151" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="152">
@@ -8926,37 +8171,32 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G152" t="n">
+        <v>8.01</v>
       </c>
       <c r="H152" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I152" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J152" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K152" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L152" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M152" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N152" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O152" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P152" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="153">
@@ -8982,37 +8222,32 @@
       <c r="F153" t="n">
         <v>0</v>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G153" t="n">
+        <v>8.01</v>
       </c>
       <c r="H153" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I153" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J153" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K153" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L153" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M153" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N153" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O153" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P153" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="154">
@@ -9038,37 +8273,32 @@
       <c r="F154" t="n">
         <v>0</v>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G154" t="n">
+        <v>8.01</v>
       </c>
       <c r="H154" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I154" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J154" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K154" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L154" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M154" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N154" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O154" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P154" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="155">
@@ -9094,37 +8324,32 @@
       <c r="F155" t="n">
         <v>0</v>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G155" t="n">
+        <v>8.01</v>
       </c>
       <c r="H155" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I155" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J155" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K155" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L155" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M155" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N155" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O155" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P155" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="156">
@@ -9150,37 +8375,32 @@
       <c r="F156" t="n">
         <v>0</v>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G156" t="n">
+        <v>8.01</v>
       </c>
       <c r="H156" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I156" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J156" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K156" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L156" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M156" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N156" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O156" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P156" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="157">
@@ -9206,37 +8426,32 @@
       <c r="F157" t="n">
         <v>0</v>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Moscow</t>
-        </is>
+      <c r="G157" t="n">
+        <v>8.01</v>
       </c>
       <c r="H157" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="I157" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
       <c r="J157" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="K157" t="n">
-        <v>0.59</v>
+        <v>81.47</v>
       </c>
       <c r="L157" t="n">
-        <v>80.5</v>
+        <v>1488.56</v>
       </c>
       <c r="M157" t="n">
-        <v>1488.05</v>
+        <v>109.35</v>
       </c>
       <c r="N157" t="n">
-        <v>109.38</v>
+        <v>6112.58</v>
       </c>
       <c r="O157" t="n">
-        <v>6123.57</v>
-      </c>
-      <c r="P157" t="n">
-        <v>1028.6</v>
+        <v>1036.75</v>
       </c>
     </row>
     <row r="158">
@@ -9262,37 +8477,32 @@
       <c r="F158" t="n">
         <v>0</v>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G158" t="n">
+        <v>15.75</v>
       </c>
       <c r="H158" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I158" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J158" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K158" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L158" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M158" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N158" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O158" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P158" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="159">
@@ -9318,37 +8528,32 @@
       <c r="F159" t="n">
         <v>0</v>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G159" t="n">
+        <v>15.75</v>
       </c>
       <c r="H159" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I159" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J159" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K159" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L159" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M159" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N159" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O159" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P159" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="160">
@@ -9374,37 +8579,32 @@
       <c r="F160" t="n">
         <v>0</v>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G160" t="n">
+        <v>15.75</v>
       </c>
       <c r="H160" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I160" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J160" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K160" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L160" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M160" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N160" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O160" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P160" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="161">
@@ -9430,37 +8630,32 @@
       <c r="F161" t="n">
         <v>0</v>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G161" t="n">
+        <v>15.75</v>
       </c>
       <c r="H161" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I161" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J161" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K161" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L161" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M161" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N161" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O161" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P161" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="162">
@@ -9486,37 +8681,32 @@
       <c r="F162" t="n">
         <v>0</v>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G162" t="n">
+        <v>15.75</v>
       </c>
       <c r="H162" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I162" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J162" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K162" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L162" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M162" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N162" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O162" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P162" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="163">
@@ -9542,37 +8732,32 @@
       <c r="F163" t="n">
         <v>0</v>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G163" t="n">
+        <v>15.75</v>
       </c>
       <c r="H163" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I163" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J163" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K163" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L163" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M163" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N163" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O163" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P163" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="164">
@@ -9598,37 +8783,32 @@
       <c r="F164" t="n">
         <v>0</v>
       </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G164" t="n">
+        <v>15.75</v>
       </c>
       <c r="H164" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I164" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J164" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K164" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L164" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M164" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N164" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O164" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P164" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="165">
@@ -9654,37 +8834,32 @@
       <c r="F165" t="n">
         <v>0</v>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G165" t="n">
+        <v>15.75</v>
       </c>
       <c r="H165" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I165" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J165" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K165" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L165" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M165" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N165" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O165" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P165" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="166">
@@ -9710,37 +8885,32 @@
       <c r="F166" t="n">
         <v>0</v>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G166" t="n">
+        <v>15.75</v>
       </c>
       <c r="H166" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I166" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J166" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K166" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L166" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M166" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N166" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O166" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P166" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="167">
@@ -9766,37 +8936,32 @@
       <c r="F167" t="n">
         <v>0</v>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G167" t="n">
+        <v>15.75</v>
       </c>
       <c r="H167" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I167" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J167" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K167" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L167" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M167" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N167" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O167" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P167" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="168">
@@ -9822,37 +8987,32 @@
       <c r="F168" t="n">
         <v>0</v>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G168" t="n">
+        <v>15.75</v>
       </c>
       <c r="H168" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I168" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J168" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K168" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L168" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M168" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N168" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O168" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P168" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
     <row r="169">
@@ -9878,37 +9038,32 @@
       <c r="F169" t="n">
         <v>0</v>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Prague</t>
-        </is>
+      <c r="G169" t="n">
+        <v>15.75</v>
       </c>
       <c r="H169" t="n">
-        <v>15.98</v>
+        <v>1.3</v>
       </c>
       <c r="I169" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="J169" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="K169" t="n">
-        <v>1.82</v>
+        <v>95.38</v>
       </c>
       <c r="L169" t="n">
-        <v>96.47</v>
+        <v>2061.85</v>
       </c>
       <c r="M169" t="n">
-        <v>2110.11</v>
+        <v>357.66</v>
       </c>
       <c r="N169" t="n">
-        <v>363.19</v>
+        <v>9135.959999999999</v>
       </c>
       <c r="O169" t="n">
-        <v>9277.26</v>
-      </c>
-      <c r="P169" t="n">
-        <v>2023.81</v>
+        <v>1992.98</v>
       </c>
     </row>
   </sheetData>
